--- a/table.xlsx
+++ b/table.xlsx
@@ -11741,9 +11741,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>OPOSQMI</t>
-  </si>
-  <si>
     <t>KEY</t>
   </si>
   <si>
@@ -11760,6 +11757,9 @@
   </si>
   <si>
     <t>PLACENS</t>
+  </si>
+  <si>
+    <t>POPSQMI</t>
   </si>
 </sst>
 </file>
@@ -12078,7 +12078,7 @@
   <dimension ref="A1:R1019"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12091,25 +12091,25 @@
         <v>3904</v>
       </c>
       <c r="B1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="C1" t="s">
         <v>3905</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3906</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3907</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3908</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3909</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3910</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3911</v>
       </c>
       <c r="I1" t="s">
         <v>3894</v>
@@ -31976,6 +31976,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>